--- a/data/items.xlsx
+++ b/data/items.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="76">
   <si>
     <t>name</t>
   </si>
@@ -201,15 +201,6 @@
     <t>Common gloves</t>
   </si>
   <si>
-    <t>Mago</t>
-  </si>
-  <si>
-    <t>Items ALL</t>
-  </si>
-  <si>
-    <t>Guerrero</t>
-  </si>
-  <si>
     <t>Wizzard hat</t>
   </si>
   <si>
@@ -247,12 +238,6 @@
   </si>
   <si>
     <t>Lord armor</t>
-  </si>
-  <si>
-    <t>Arquero</t>
-  </si>
-  <si>
-    <t>update</t>
   </si>
   <si>
     <t>Helmet of steel</t>
@@ -268,7 +253,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,21 +264,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="50"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="50"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -371,7 +341,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -417,18 +387,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -718,10 +676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M63"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:XFD361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -737,11 +695,10 @@
     <col min="10" max="10" width="7.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.85546875" style="2" customWidth="1"/>
     <col min="12" max="12" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="60.140625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -775,11 +732,9 @@
       <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L1" s="15"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -811,14 +766,9 @@
       <c r="K2" s="7">
         <v>0</v>
       </c>
-      <c r="L2" s="15">
-        <v>1</v>
-      </c>
-      <c r="M2" s="17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L2" s="15"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -850,12 +800,9 @@
       <c r="K3" s="7">
         <v>1</v>
       </c>
-      <c r="L3" s="15">
-        <v>1</v>
-      </c>
-      <c r="M3" s="17"/>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L3" s="15"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -887,12 +834,9 @@
       <c r="K4" s="7">
         <v>3</v>
       </c>
-      <c r="L4" s="15">
-        <v>1</v>
-      </c>
-      <c r="M4" s="17"/>
-    </row>
-    <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L4" s="15"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -924,12 +868,9 @@
       <c r="K5" s="7">
         <v>3</v>
       </c>
-      <c r="L5" s="15">
-        <v>1</v>
-      </c>
-      <c r="M5" s="17"/>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L5" s="15"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -961,12 +902,9 @@
       <c r="K6" s="7">
         <v>3</v>
       </c>
-      <c r="L6" s="15">
-        <v>1</v>
-      </c>
-      <c r="M6" s="17"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L6" s="15"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -998,12 +936,9 @@
       <c r="K7" s="7">
         <v>3</v>
       </c>
-      <c r="L7" s="15">
-        <v>1</v>
-      </c>
-      <c r="M7" s="17"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L7" s="15"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1035,12 +970,9 @@
       <c r="K8" s="7">
         <v>5</v>
       </c>
-      <c r="L8" s="15">
-        <v>1</v>
-      </c>
-      <c r="M8" s="17"/>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L8" s="15"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1072,12 +1004,9 @@
       <c r="K9" s="7">
         <v>10</v>
       </c>
-      <c r="L9" s="15">
-        <v>1</v>
-      </c>
-      <c r="M9" s="17"/>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L9" s="15"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1109,12 +1038,9 @@
       <c r="K10" s="7">
         <v>20</v>
       </c>
-      <c r="L10" s="15">
-        <v>1</v>
-      </c>
-      <c r="M10" s="17"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L10" s="15"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1146,12 +1072,9 @@
       <c r="K11" s="7">
         <v>25</v>
       </c>
-      <c r="L11" s="15">
-        <v>1</v>
-      </c>
-      <c r="M11" s="17"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L11" s="15"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1185,19 +1108,14 @@
       <c r="K12" s="9">
         <v>1</v>
       </c>
-      <c r="L12" s="15">
-        <v>1</v>
-      </c>
-      <c r="M12" s="16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L12" s="15"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>13</v>
@@ -1226,12 +1144,9 @@
       <c r="K13" s="9">
         <v>2</v>
       </c>
-      <c r="L13" s="15">
-        <v>1</v>
-      </c>
-      <c r="M13" s="16"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L13" s="15"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -1265,12 +1180,9 @@
       <c r="K14" s="9">
         <v>4</v>
       </c>
-      <c r="L14" s="15">
-        <v>1</v>
-      </c>
-      <c r="M14" s="16"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L14" s="15"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -1304,12 +1216,9 @@
       <c r="K15" s="9">
         <v>6</v>
       </c>
-      <c r="L15" s="15">
-        <v>1</v>
-      </c>
-      <c r="M15" s="16"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L15" s="15"/>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -1343,12 +1252,9 @@
       <c r="K16" s="9">
         <v>1</v>
       </c>
-      <c r="L16" s="15">
-        <v>1</v>
-      </c>
-      <c r="M16" s="16"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L16" s="15"/>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -1382,12 +1288,9 @@
       <c r="K17" s="9">
         <v>2</v>
       </c>
-      <c r="L17" s="15">
-        <v>1</v>
-      </c>
-      <c r="M17" s="16"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L17" s="15"/>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -1421,12 +1324,9 @@
       <c r="K18" s="9">
         <v>4</v>
       </c>
-      <c r="L18" s="15">
-        <v>1</v>
-      </c>
-      <c r="M18" s="16"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L18" s="15"/>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -1460,12 +1360,9 @@
       <c r="K19" s="9">
         <v>8</v>
       </c>
-      <c r="L19" s="15">
-        <v>1</v>
-      </c>
-      <c r="M19" s="16"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L19" s="15"/>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -1499,12 +1396,9 @@
       <c r="K20" s="9">
         <v>1</v>
       </c>
-      <c r="L20" s="15">
-        <v>1</v>
-      </c>
-      <c r="M20" s="16"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L20" s="15"/>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -1538,12 +1432,9 @@
       <c r="K21" s="9">
         <v>2</v>
       </c>
-      <c r="L21" s="15">
-        <v>1</v>
-      </c>
-      <c r="M21" s="16"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L21" s="15"/>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -1577,12 +1468,9 @@
       <c r="K22" s="9">
         <v>4</v>
       </c>
-      <c r="L22" s="15">
-        <v>1</v>
-      </c>
-      <c r="M22" s="16"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L22" s="15"/>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -1616,17 +1504,14 @@
       <c r="K23" s="9">
         <v>8</v>
       </c>
-      <c r="L23" s="15">
-        <v>1</v>
-      </c>
-      <c r="M23" s="16"/>
-    </row>
-    <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L23" s="15"/>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>13</v>
@@ -1655,14 +1540,9 @@
       <c r="K24" s="8">
         <v>1</v>
       </c>
-      <c r="L24" s="15">
-        <v>1</v>
-      </c>
-      <c r="M24" s="19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L24" s="15"/>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -1696,12 +1576,9 @@
       <c r="K25" s="8">
         <v>2</v>
       </c>
-      <c r="L25" s="15">
-        <v>1</v>
-      </c>
-      <c r="M25" s="19"/>
-    </row>
-    <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L25" s="15"/>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -1735,12 +1612,9 @@
       <c r="K26" s="8">
         <v>4</v>
       </c>
-      <c r="L26" s="15">
-        <v>1</v>
-      </c>
-      <c r="M26" s="19"/>
-    </row>
-    <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L26" s="15"/>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -1774,12 +1648,9 @@
       <c r="K27" s="8">
         <v>6</v>
       </c>
-      <c r="L27" s="15">
-        <v>1</v>
-      </c>
-      <c r="M27" s="19"/>
-    </row>
-    <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L27" s="15"/>
+    </row>
+    <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -1813,12 +1684,9 @@
       <c r="K28" s="8">
         <v>1</v>
       </c>
-      <c r="L28" s="15">
-        <v>1</v>
-      </c>
-      <c r="M28" s="19"/>
-    </row>
-    <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L28" s="15"/>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -1852,17 +1720,14 @@
       <c r="K29" s="8">
         <v>2</v>
       </c>
-      <c r="L29" s="15">
-        <v>1</v>
-      </c>
-      <c r="M29" s="19"/>
-    </row>
-    <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L29" s="15"/>
+    </row>
+    <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>29</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>22</v>
@@ -1891,12 +1756,9 @@
       <c r="K30" s="8">
         <v>4</v>
       </c>
-      <c r="L30" s="15">
-        <v>1</v>
-      </c>
-      <c r="M30" s="19"/>
-    </row>
-    <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L30" s="15"/>
+    </row>
+    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -1930,12 +1792,9 @@
       <c r="K31" s="8">
         <v>8</v>
       </c>
-      <c r="L31" s="15">
-        <v>1</v>
-      </c>
-      <c r="M31" s="19"/>
-    </row>
-    <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L31" s="15"/>
+    </row>
+    <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -1969,12 +1828,8 @@
       <c r="K32" s="8">
         <v>1</v>
       </c>
-      <c r="L32" s="1">
-        <v>1</v>
-      </c>
-      <c r="M32" s="19"/>
-    </row>
-    <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -2008,17 +1863,13 @@
       <c r="K33" s="8">
         <v>2</v>
       </c>
-      <c r="L33" s="1">
-        <v>1</v>
-      </c>
-      <c r="M33" s="19"/>
-    </row>
-    <row r="34" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>33</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>34</v>
@@ -2047,12 +1898,8 @@
       <c r="K34" s="8">
         <v>4</v>
       </c>
-      <c r="L34" s="1">
-        <v>1</v>
-      </c>
-      <c r="M34" s="19"/>
-    </row>
-    <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -2086,12 +1933,8 @@
       <c r="K35" s="8">
         <v>8</v>
       </c>
-      <c r="L35" s="1">
-        <v>1</v>
-      </c>
-      <c r="M35" s="19"/>
-    </row>
-    <row r="36" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -2125,12 +1968,8 @@
       <c r="K36" s="8">
         <v>0</v>
       </c>
-      <c r="L36" s="1">
-        <v>1</v>
-      </c>
-      <c r="M36" s="19"/>
-    </row>
-    <row r="37" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -2164,12 +2003,8 @@
       <c r="K37" s="8">
         <v>0</v>
       </c>
-      <c r="L37" s="1">
-        <v>1</v>
-      </c>
-      <c r="M37" s="19"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -2203,12 +2038,8 @@
       <c r="K38" s="8">
         <v>0</v>
       </c>
-      <c r="L38" s="1">
-        <v>1</v>
-      </c>
-      <c r="M38" s="19"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -2242,17 +2073,13 @@
       <c r="K39" s="8">
         <v>0</v>
       </c>
-      <c r="L39" s="1">
-        <v>1</v>
-      </c>
-      <c r="M39" s="19"/>
-    </row>
-    <row r="40" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>13</v>
@@ -2281,19 +2108,13 @@
       <c r="K40" s="6">
         <v>1</v>
       </c>
-      <c r="L40" s="1">
-        <v>1</v>
-      </c>
-      <c r="M40" s="18" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>13</v>
@@ -2322,17 +2143,13 @@
       <c r="K41" s="6">
         <v>2</v>
       </c>
-      <c r="L41" s="1">
-        <v>1</v>
-      </c>
-      <c r="M41" s="18"/>
-    </row>
-    <row r="42" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>13</v>
@@ -2361,17 +2178,13 @@
       <c r="K42" s="6">
         <v>4</v>
       </c>
-      <c r="L42" s="1">
-        <v>1</v>
-      </c>
-      <c r="M42" s="18"/>
-    </row>
-    <row r="43" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>13</v>
@@ -2400,12 +2213,8 @@
       <c r="K43" s="6">
         <v>6</v>
       </c>
-      <c r="L43" s="1">
-        <v>1</v>
-      </c>
-      <c r="M43" s="18"/>
-    </row>
-    <row r="44" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -2439,12 +2248,8 @@
       <c r="K44" s="6">
         <v>1</v>
       </c>
-      <c r="L44" s="1">
-        <v>1</v>
-      </c>
-      <c r="M44" s="18"/>
-    </row>
-    <row r="45" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -2478,17 +2283,13 @@
       <c r="K45" s="6">
         <v>4</v>
       </c>
-      <c r="L45" s="1">
-        <v>1</v>
-      </c>
-      <c r="M45" s="18"/>
-    </row>
-    <row r="46" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>22</v>
@@ -2517,17 +2318,13 @@
       <c r="K46" s="6">
         <v>6</v>
       </c>
-      <c r="L46" s="1">
-        <v>1</v>
-      </c>
-      <c r="M46" s="18"/>
-    </row>
-    <row r="47" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>22</v>
@@ -2556,17 +2353,13 @@
       <c r="K47" s="6">
         <v>8</v>
       </c>
-      <c r="L47" s="1">
-        <v>1</v>
-      </c>
-      <c r="M47" s="18"/>
-    </row>
-    <row r="48" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>34</v>
@@ -2595,17 +2388,13 @@
       <c r="K48" s="6">
         <v>1</v>
       </c>
-      <c r="L48" s="1">
-        <v>1</v>
-      </c>
-      <c r="M48" s="18"/>
-    </row>
-    <row r="49" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>34</v>
@@ -2634,17 +2423,13 @@
       <c r="K49" s="6">
         <v>2</v>
       </c>
-      <c r="L49" s="1">
-        <v>1</v>
-      </c>
-      <c r="M49" s="18"/>
-    </row>
-    <row r="50" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>34</v>
@@ -2673,17 +2458,13 @@
       <c r="K50" s="6">
         <v>4</v>
       </c>
-      <c r="L50" s="1">
-        <v>1</v>
-      </c>
-      <c r="M50" s="18"/>
-    </row>
-    <row r="51" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>50</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>34</v>
@@ -2712,20 +2493,16 @@
       <c r="K51" s="6">
         <v>8</v>
       </c>
-      <c r="L51" s="1">
-        <v>1</v>
-      </c>
-      <c r="M51" s="18"/>
-    </row>
-    <row r="52" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D52" s="7">
         <v>1</v>
@@ -2749,30 +2526,8 @@
       <c r="K52" s="7">
         <v>0</v>
       </c>
-      <c r="M52"/>
-    </row>
-    <row r="53" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M53"/>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B63"/>
-      <c r="C63"/>
-      <c r="D63"/>
-      <c r="E63"/>
-      <c r="F63"/>
-      <c r="G63"/>
-      <c r="H63"/>
-      <c r="I63"/>
-      <c r="J63"/>
-      <c r="K63"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="M12:M23"/>
-    <mergeCell ref="M2:M11"/>
-    <mergeCell ref="M40:M51"/>
-    <mergeCell ref="M24:M39"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/data/items.xlsx
+++ b/data/items.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="77">
   <si>
     <t>name</t>
   </si>
@@ -247,6 +247,9 @@
   </si>
   <si>
     <t>gem</t>
+  </si>
+  <si>
+    <t>shop</t>
   </si>
 </sst>
 </file>
@@ -341,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -383,9 +386,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -678,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:XFD361"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -732,7 +732,9 @@
       <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="15"/>
+      <c r="L1" s="4" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
@@ -766,7 +768,9 @@
       <c r="K2" s="7">
         <v>0</v>
       </c>
-      <c r="L2" s="15"/>
+      <c r="L2" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
@@ -800,7 +804,9 @@
       <c r="K3" s="7">
         <v>1</v>
       </c>
-      <c r="L3" s="15"/>
+      <c r="L3" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
@@ -834,7 +840,9 @@
       <c r="K4" s="7">
         <v>3</v>
       </c>
-      <c r="L4" s="15"/>
+      <c r="L4" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
@@ -868,7 +876,9 @@
       <c r="K5" s="7">
         <v>3</v>
       </c>
-      <c r="L5" s="15"/>
+      <c r="L5" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
@@ -902,7 +912,9 @@
       <c r="K6" s="7">
         <v>3</v>
       </c>
-      <c r="L6" s="15"/>
+      <c r="L6" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
@@ -936,7 +948,9 @@
       <c r="K7" s="7">
         <v>3</v>
       </c>
-      <c r="L7" s="15"/>
+      <c r="L7" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
@@ -970,7 +984,9 @@
       <c r="K8" s="7">
         <v>5</v>
       </c>
-      <c r="L8" s="15"/>
+      <c r="L8" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
@@ -1004,7 +1020,9 @@
       <c r="K9" s="7">
         <v>10</v>
       </c>
-      <c r="L9" s="15"/>
+      <c r="L9" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
@@ -1038,7 +1056,9 @@
       <c r="K10" s="7">
         <v>20</v>
       </c>
-      <c r="L10" s="15"/>
+      <c r="L10" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
@@ -1072,7 +1092,9 @@
       <c r="K11" s="7">
         <v>25</v>
       </c>
-      <c r="L11" s="15"/>
+      <c r="L11" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
@@ -1108,7 +1130,9 @@
       <c r="K12" s="9">
         <v>1</v>
       </c>
-      <c r="L12" s="15"/>
+      <c r="L12" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
@@ -1144,7 +1168,9 @@
       <c r="K13" s="9">
         <v>2</v>
       </c>
-      <c r="L13" s="15"/>
+      <c r="L13" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
@@ -1180,7 +1206,9 @@
       <c r="K14" s="9">
         <v>4</v>
       </c>
-      <c r="L14" s="15"/>
+      <c r="L14" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
@@ -1216,7 +1244,9 @@
       <c r="K15" s="9">
         <v>6</v>
       </c>
-      <c r="L15" s="15"/>
+      <c r="L15" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
@@ -1252,7 +1282,9 @@
       <c r="K16" s="9">
         <v>1</v>
       </c>
-      <c r="L16" s="15"/>
+      <c r="L16" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
@@ -1288,7 +1320,9 @@
       <c r="K17" s="9">
         <v>2</v>
       </c>
-      <c r="L17" s="15"/>
+      <c r="L17" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
@@ -1324,7 +1358,9 @@
       <c r="K18" s="9">
         <v>4</v>
       </c>
-      <c r="L18" s="15"/>
+      <c r="L18" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
@@ -1360,7 +1396,9 @@
       <c r="K19" s="9">
         <v>8</v>
       </c>
-      <c r="L19" s="15"/>
+      <c r="L19" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
@@ -1396,7 +1434,9 @@
       <c r="K20" s="9">
         <v>1</v>
       </c>
-      <c r="L20" s="15"/>
+      <c r="L20" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
@@ -1432,7 +1472,9 @@
       <c r="K21" s="9">
         <v>2</v>
       </c>
-      <c r="L21" s="15"/>
+      <c r="L21" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
@@ -1468,7 +1510,9 @@
       <c r="K22" s="9">
         <v>4</v>
       </c>
-      <c r="L22" s="15"/>
+      <c r="L22" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
@@ -1504,7 +1548,9 @@
       <c r="K23" s="9">
         <v>8</v>
       </c>
-      <c r="L23" s="15"/>
+      <c r="L23" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
@@ -1540,7 +1586,9 @@
       <c r="K24" s="8">
         <v>1</v>
       </c>
-      <c r="L24" s="15"/>
+      <c r="L24" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
@@ -1576,7 +1624,9 @@
       <c r="K25" s="8">
         <v>2</v>
       </c>
-      <c r="L25" s="15"/>
+      <c r="L25" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
@@ -1612,7 +1662,9 @@
       <c r="K26" s="8">
         <v>4</v>
       </c>
-      <c r="L26" s="15"/>
+      <c r="L26" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
@@ -1648,7 +1700,9 @@
       <c r="K27" s="8">
         <v>6</v>
       </c>
-      <c r="L27" s="15"/>
+      <c r="L27" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
@@ -1684,7 +1738,9 @@
       <c r="K28" s="8">
         <v>1</v>
       </c>
-      <c r="L28" s="15"/>
+      <c r="L28" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
@@ -1720,7 +1776,9 @@
       <c r="K29" s="8">
         <v>2</v>
       </c>
-      <c r="L29" s="15"/>
+      <c r="L29" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
@@ -1756,7 +1814,9 @@
       <c r="K30" s="8">
         <v>4</v>
       </c>
-      <c r="L30" s="15"/>
+      <c r="L30" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
@@ -1792,7 +1852,9 @@
       <c r="K31" s="8">
         <v>8</v>
       </c>
-      <c r="L31" s="15"/>
+      <c r="L31" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
@@ -1828,8 +1890,11 @@
       <c r="K32" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L32" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -1863,8 +1928,11 @@
       <c r="K33" s="8">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L33" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -1898,8 +1966,11 @@
       <c r="K34" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L34" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -1933,8 +2004,11 @@
       <c r="K35" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L35" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -1968,8 +2042,11 @@
       <c r="K36" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L36" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -2003,8 +2080,11 @@
       <c r="K37" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L37" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -2038,8 +2118,11 @@
       <c r="K38" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L38" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -2073,8 +2156,11 @@
       <c r="K39" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L39" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -2108,8 +2194,11 @@
       <c r="K40" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L40" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -2143,8 +2232,11 @@
       <c r="K41" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L41" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -2178,8 +2270,11 @@
       <c r="K42" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L42" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -2213,8 +2308,11 @@
       <c r="K43" s="6">
         <v>6</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L43" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -2248,8 +2346,11 @@
       <c r="K44" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L44" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -2283,8 +2384,11 @@
       <c r="K45" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L45" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -2318,8 +2422,11 @@
       <c r="K46" s="6">
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L46" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -2353,8 +2460,11 @@
       <c r="K47" s="6">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L47" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -2388,8 +2498,11 @@
       <c r="K48" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L48" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -2423,8 +2536,11 @@
       <c r="K49" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L49" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>49</v>
       </c>
@@ -2458,8 +2574,11 @@
       <c r="K50" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L50" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>50</v>
       </c>
@@ -2493,8 +2612,11 @@
       <c r="K51" s="6">
         <v>8</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L51" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>51</v>
       </c>
@@ -2524,6 +2646,9 @@
         <v>0</v>
       </c>
       <c r="K52" s="7">
+        <v>0</v>
+      </c>
+      <c r="L52" s="7">
         <v>0</v>
       </c>
     </row>

--- a/data/items.xlsx
+++ b/data/items.xlsx
@@ -678,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="L52" sqref="L52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2649,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="L52" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/items.xlsx
+++ b/data/items.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="122">
   <si>
     <t>name</t>
   </si>
@@ -325,6 +325,66 @@
   </si>
   <si>
     <t>Shadow robe</t>
+  </si>
+  <si>
+    <t>Frozen crown</t>
+  </si>
+  <si>
+    <t>Frozen staff</t>
+  </si>
+  <si>
+    <t>Frozen robe</t>
+  </si>
+  <si>
+    <t>Frozen helmet</t>
+  </si>
+  <si>
+    <t>Frozen sword</t>
+  </si>
+  <si>
+    <t>Frozen armor</t>
+  </si>
+  <si>
+    <t>Frozen shield</t>
+  </si>
+  <si>
+    <t>Golden helmet</t>
+  </si>
+  <si>
+    <t>Golden armor</t>
+  </si>
+  <si>
+    <t>Golden bow</t>
+  </si>
+  <si>
+    <t>Infernal crown</t>
+  </si>
+  <si>
+    <t>Infernal staff</t>
+  </si>
+  <si>
+    <t>Infernal robe</t>
+  </si>
+  <si>
+    <t>Infernal helmet</t>
+  </si>
+  <si>
+    <t>Infernal sword</t>
+  </si>
+  <si>
+    <t>Infernal armor</t>
+  </si>
+  <si>
+    <t>Infernal shield</t>
+  </si>
+  <si>
+    <t>Infernal bow</t>
+  </si>
+  <si>
+    <t>Infernal hat</t>
+  </si>
+  <si>
+    <t>Infernal breastplate</t>
   </si>
 </sst>
 </file>
@@ -748,10 +808,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q77"/>
+  <dimension ref="A1:Q97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G71" sqref="G71"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62:B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2092,37 +2152,37 @@
       <c r="A36" s="4">
         <v>35</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C36" s="7" t="s">
+      <c r="B36" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="7">
-        <v>5</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F36" s="13">
-        <v>5000</v>
-      </c>
-      <c r="G36" s="7">
-        <v>2</v>
-      </c>
-      <c r="H36" s="7">
-        <v>1</v>
-      </c>
-      <c r="I36" s="7">
-        <v>1</v>
-      </c>
-      <c r="J36" s="7">
-        <v>1</v>
-      </c>
-      <c r="K36" s="7">
-        <v>1</v>
-      </c>
-      <c r="L36" s="7">
+      <c r="D36" s="8">
+        <v>200</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" s="12">
+        <v>300000</v>
+      </c>
+      <c r="G36" s="8">
+        <v>15</v>
+      </c>
+      <c r="H36" s="8">
+        <v>15</v>
+      </c>
+      <c r="I36" s="8">
+        <v>35</v>
+      </c>
+      <c r="J36" s="8">
+        <v>15</v>
+      </c>
+      <c r="K36" s="8">
+        <v>15</v>
+      </c>
+      <c r="L36" s="8">
         <v>1</v>
       </c>
     </row>
@@ -2130,37 +2190,37 @@
       <c r="A37" s="4">
         <v>36</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37" s="7" t="s">
+      <c r="B37" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D37" s="7">
-        <v>5</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F37" s="13">
-        <v>5000</v>
-      </c>
-      <c r="G37" s="7">
-        <v>4</v>
-      </c>
-      <c r="H37" s="7">
-        <v>0</v>
-      </c>
-      <c r="I37" s="7">
-        <v>0</v>
-      </c>
-      <c r="J37" s="7">
-        <v>0</v>
-      </c>
-      <c r="K37" s="7">
-        <v>1</v>
-      </c>
-      <c r="L37" s="7">
+      <c r="D37" s="8">
+        <v>200</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" s="12">
+        <v>300000</v>
+      </c>
+      <c r="G37" s="8">
+        <v>0</v>
+      </c>
+      <c r="H37" s="8">
+        <v>0</v>
+      </c>
+      <c r="I37" s="8">
+        <v>60</v>
+      </c>
+      <c r="J37" s="8">
+        <v>0</v>
+      </c>
+      <c r="K37" s="8">
+        <v>20</v>
+      </c>
+      <c r="L37" s="8">
         <v>1</v>
       </c>
     </row>
@@ -2168,37 +2228,37 @@
       <c r="A38" s="4">
         <v>37</v>
       </c>
-      <c r="B38" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38" s="7" t="s">
+      <c r="B38" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D38" s="7">
-        <v>5</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F38" s="13">
-        <v>5000</v>
-      </c>
-      <c r="G38" s="7">
-        <v>0</v>
-      </c>
-      <c r="H38" s="7">
-        <v>1</v>
-      </c>
-      <c r="I38" s="7">
-        <v>1</v>
-      </c>
-      <c r="J38" s="7">
-        <v>1</v>
-      </c>
-      <c r="K38" s="7">
-        <v>1</v>
-      </c>
-      <c r="L38" s="7">
+      <c r="D38" s="8">
+        <v>200</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F38" s="12">
+        <v>300000</v>
+      </c>
+      <c r="G38" s="8">
+        <v>20</v>
+      </c>
+      <c r="H38" s="8">
+        <v>20</v>
+      </c>
+      <c r="I38" s="8">
+        <v>0</v>
+      </c>
+      <c r="J38" s="8">
+        <v>20</v>
+      </c>
+      <c r="K38" s="8">
+        <v>20</v>
+      </c>
+      <c r="L38" s="8">
         <v>1</v>
       </c>
     </row>
@@ -2206,37 +2266,37 @@
       <c r="A39" s="4">
         <v>38</v>
       </c>
-      <c r="B39" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D39" s="7">
-        <v>5</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F39" s="13">
-        <v>5000</v>
-      </c>
-      <c r="G39" s="7">
-        <v>1</v>
-      </c>
-      <c r="H39" s="7">
-        <v>0</v>
-      </c>
-      <c r="I39" s="7">
-        <v>0</v>
-      </c>
-      <c r="J39" s="7">
-        <v>2</v>
-      </c>
-      <c r="K39" s="7">
-        <v>0</v>
-      </c>
-      <c r="L39" s="7">
+      <c r="B39" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="8">
+        <v>250</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F39" s="12">
+        <v>500000</v>
+      </c>
+      <c r="G39" s="8">
+        <v>20</v>
+      </c>
+      <c r="H39" s="8">
+        <v>20</v>
+      </c>
+      <c r="I39" s="8">
+        <v>45</v>
+      </c>
+      <c r="J39" s="8">
+        <v>20</v>
+      </c>
+      <c r="K39" s="8">
+        <v>20</v>
+      </c>
+      <c r="L39" s="8">
         <v>1</v>
       </c>
     </row>
@@ -2244,37 +2304,37 @@
       <c r="A40" s="4">
         <v>39</v>
       </c>
-      <c r="B40" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" s="7">
-        <v>20</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F40" s="13">
-        <v>10000</v>
-      </c>
-      <c r="G40" s="7">
-        <v>4</v>
-      </c>
-      <c r="H40" s="7">
-        <v>2</v>
-      </c>
-      <c r="I40" s="7">
-        <v>2</v>
-      </c>
-      <c r="J40" s="7">
-        <v>2</v>
-      </c>
-      <c r="K40" s="7">
-        <v>2</v>
-      </c>
-      <c r="L40" s="7">
+      <c r="B40" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" s="8">
+        <v>250</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F40" s="12">
+        <v>500000</v>
+      </c>
+      <c r="G40" s="8">
+        <v>0</v>
+      </c>
+      <c r="H40" s="8">
+        <v>0</v>
+      </c>
+      <c r="I40" s="8">
+        <v>75</v>
+      </c>
+      <c r="J40" s="8">
+        <v>0</v>
+      </c>
+      <c r="K40" s="8">
+        <v>35</v>
+      </c>
+      <c r="L40" s="8">
         <v>1</v>
       </c>
     </row>
@@ -2282,37 +2342,37 @@
       <c r="A41" s="4">
         <v>40</v>
       </c>
-      <c r="B41" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D41" s="7">
-        <v>20</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F41" s="13">
-        <v>10000</v>
-      </c>
-      <c r="G41" s="7">
-        <v>8</v>
-      </c>
-      <c r="H41" s="7">
-        <v>0</v>
-      </c>
-      <c r="I41" s="7">
-        <v>0</v>
-      </c>
-      <c r="J41" s="7">
-        <v>0</v>
-      </c>
-      <c r="K41" s="7">
-        <v>2</v>
-      </c>
-      <c r="L41" s="7">
+      <c r="B41" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" s="8">
+        <v>250</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F41" s="12">
+        <v>500000</v>
+      </c>
+      <c r="G41" s="8">
+        <v>25</v>
+      </c>
+      <c r="H41" s="8">
+        <v>25</v>
+      </c>
+      <c r="I41" s="8">
+        <v>0</v>
+      </c>
+      <c r="J41" s="8">
+        <v>25</v>
+      </c>
+      <c r="K41" s="8">
+        <v>25</v>
+      </c>
+      <c r="L41" s="8">
         <v>1</v>
       </c>
     </row>
@@ -2321,34 +2381,34 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D42" s="7">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>40</v>
       </c>
       <c r="F42" s="13">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G42" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H42" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J42" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K42" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L42" s="7">
         <v>1</v>
@@ -2359,22 +2419,22 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="D43" s="7">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>40</v>
       </c>
       <c r="F43" s="13">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G43" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
@@ -2383,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="J43" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K43" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43" s="7">
         <v>1</v>
@@ -2397,34 +2457,34 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D44" s="7">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>40</v>
       </c>
       <c r="F44" s="13">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="G44" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H44" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I44" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J44" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K44" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L44" s="7">
         <v>1</v>
@@ -2435,22 +2495,22 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D45" s="7">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>40</v>
       </c>
       <c r="F45" s="13">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="G45" s="7">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
@@ -2459,10 +2519,10 @@
         <v>0</v>
       </c>
       <c r="J45" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K45" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L45" s="7">
         <v>1</v>
@@ -2473,34 +2533,34 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D46" s="7">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>40</v>
       </c>
       <c r="F46" s="13">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="G46" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H46" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I46" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J46" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K46" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L46" s="7">
         <v>1</v>
@@ -2511,22 +2571,22 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="D47" s="7">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>40</v>
       </c>
       <c r="F47" s="13">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="G47" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
@@ -2535,10 +2595,10 @@
         <v>0</v>
       </c>
       <c r="J47" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K47" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L47" s="7">
         <v>1</v>
@@ -2549,34 +2609,34 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D48" s="7">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>40</v>
       </c>
       <c r="F48" s="13">
-        <v>40000</v>
+        <v>10000</v>
       </c>
       <c r="G48" s="7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H48" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I48" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J48" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K48" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L48" s="7">
         <v>1</v>
@@ -2587,22 +2647,22 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D49" s="7">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>40</v>
       </c>
       <c r="F49" s="13">
-        <v>40000</v>
+        <v>10000</v>
       </c>
       <c r="G49" s="7">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -2611,10 +2671,10 @@
         <v>0</v>
       </c>
       <c r="J49" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K49" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L49" s="7">
         <v>1</v>
@@ -2625,34 +2685,34 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D50" s="7">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>40</v>
       </c>
       <c r="F50" s="13">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="G50" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H50" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I50" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J50" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K50" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L50" s="7">
         <v>1</v>
@@ -2663,22 +2723,22 @@
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="D51" s="7">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>40</v>
       </c>
       <c r="F51" s="13">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="G51" s="7">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H51" s="7">
         <v>0</v>
@@ -2687,10 +2747,10 @@
         <v>0</v>
       </c>
       <c r="J51" s="7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="K51" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L51" s="7">
         <v>1</v>
@@ -2701,34 +2761,34 @@
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D52" s="7">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>40</v>
       </c>
       <c r="F52" s="13">
-        <v>80000</v>
+        <v>20000</v>
       </c>
       <c r="G52" s="7">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="H52" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I52" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J52" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K52" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L52" s="7">
         <v>1</v>
@@ -2739,22 +2799,22 @@
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D53" s="7">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>40</v>
       </c>
       <c r="F53" s="13">
-        <v>80000</v>
+        <v>20000</v>
       </c>
       <c r="G53" s="7">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="H53" s="7">
         <v>0</v>
@@ -2763,10 +2823,10 @@
         <v>0</v>
       </c>
       <c r="J53" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K53" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L53" s="7">
         <v>1</v>
@@ -2777,34 +2837,34 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D54" s="7">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>40</v>
       </c>
       <c r="F54" s="13">
-        <v>80000</v>
+        <v>40000</v>
       </c>
       <c r="G54" s="7">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H54" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I54" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J54" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K54" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L54" s="7">
         <v>1</v>
@@ -2815,22 +2875,22 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="D55" s="7">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>40</v>
       </c>
       <c r="F55" s="13">
-        <v>80000</v>
+        <v>40000</v>
       </c>
       <c r="G55" s="7">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="H55" s="7">
         <v>0</v>
@@ -2839,10 +2899,10 @@
         <v>0</v>
       </c>
       <c r="J55" s="7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K55" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L55" s="7">
         <v>1</v>
@@ -2853,34 +2913,34 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D56" s="7">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>40</v>
       </c>
       <c r="F56" s="13">
-        <v>150000</v>
+        <v>40000</v>
       </c>
       <c r="G56" s="7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H56" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I56" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J56" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K56" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L56" s="7">
         <v>1</v>
@@ -2891,22 +2951,22 @@
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D57" s="7">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>40</v>
       </c>
       <c r="F57" s="13">
-        <v>150000</v>
+        <v>40000</v>
       </c>
       <c r="G57" s="7">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="H57" s="7">
         <v>0</v>
@@ -2915,10 +2975,10 @@
         <v>0</v>
       </c>
       <c r="J57" s="7">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="K57" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L57" s="7">
         <v>1</v>
@@ -2929,34 +2989,34 @@
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D58" s="7">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>40</v>
       </c>
       <c r="F58" s="13">
-        <v>150000</v>
+        <v>80000</v>
       </c>
       <c r="G58" s="7">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="H58" s="7">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I58" s="7">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J58" s="7">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="K58" s="7">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="L58" s="7">
         <v>1</v>
@@ -2967,22 +3027,22 @@
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="D59" s="7">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>40</v>
       </c>
       <c r="F59" s="13">
-        <v>150000</v>
+        <v>80000</v>
       </c>
       <c r="G59" s="7">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H59" s="7">
         <v>0</v>
@@ -2991,10 +3051,10 @@
         <v>0</v>
       </c>
       <c r="J59" s="7">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="K59" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L59" s="7">
         <v>1</v>
@@ -3004,37 +3064,37 @@
       <c r="A60" s="4">
         <v>59</v>
       </c>
-      <c r="B60" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D60" s="5">
-        <v>5</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F60" s="11">
-        <v>5000</v>
-      </c>
-      <c r="G60" s="5">
-        <v>1</v>
-      </c>
-      <c r="H60" s="5">
-        <v>2</v>
-      </c>
-      <c r="I60" s="5">
-        <v>1</v>
-      </c>
-      <c r="J60" s="5">
-        <v>1</v>
-      </c>
-      <c r="K60" s="5">
-        <v>1</v>
-      </c>
-      <c r="L60" s="5">
+      <c r="B60" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D60" s="7">
+        <v>100</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F60" s="13">
+        <v>80000</v>
+      </c>
+      <c r="G60" s="7">
+        <v>0</v>
+      </c>
+      <c r="H60" s="7">
+        <v>10</v>
+      </c>
+      <c r="I60" s="7">
+        <v>10</v>
+      </c>
+      <c r="J60" s="7">
+        <v>10</v>
+      </c>
+      <c r="K60" s="7">
+        <v>10</v>
+      </c>
+      <c r="L60" s="7">
         <v>1</v>
       </c>
     </row>
@@ -3042,37 +3102,37 @@
       <c r="A61" s="4">
         <v>60</v>
       </c>
-      <c r="B61" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D61" s="5">
-        <v>5</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F61" s="11">
-        <v>5000</v>
-      </c>
-      <c r="G61" s="5">
-        <v>0</v>
-      </c>
-      <c r="H61" s="5">
-        <v>4</v>
-      </c>
-      <c r="I61" s="5">
-        <v>0</v>
-      </c>
-      <c r="J61" s="5">
-        <v>0</v>
-      </c>
-      <c r="K61" s="5">
-        <v>1</v>
-      </c>
-      <c r="L61" s="5">
+      <c r="B61" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D61" s="7">
+        <v>100</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F61" s="13">
+        <v>80000</v>
+      </c>
+      <c r="G61" s="7">
+        <v>12</v>
+      </c>
+      <c r="H61" s="7">
+        <v>0</v>
+      </c>
+      <c r="I61" s="7">
+        <v>0</v>
+      </c>
+      <c r="J61" s="7">
+        <v>20</v>
+      </c>
+      <c r="K61" s="7">
+        <v>0</v>
+      </c>
+      <c r="L61" s="7">
         <v>1</v>
       </c>
     </row>
@@ -3080,37 +3140,37 @@
       <c r="A62" s="4">
         <v>61</v>
       </c>
-      <c r="B62" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D62" s="5">
-        <v>5</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F62" s="11">
-        <v>5000</v>
-      </c>
-      <c r="G62" s="5">
-        <v>1</v>
-      </c>
-      <c r="H62" s="5">
-        <v>0</v>
-      </c>
-      <c r="I62" s="5">
-        <v>1</v>
-      </c>
-      <c r="J62" s="5">
-        <v>1</v>
-      </c>
-      <c r="K62" s="5">
-        <v>1</v>
-      </c>
-      <c r="L62" s="5">
+      <c r="B62" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="7">
+        <v>150</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F62" s="13">
+        <v>150000</v>
+      </c>
+      <c r="G62" s="7">
+        <v>30</v>
+      </c>
+      <c r="H62" s="7">
+        <v>10</v>
+      </c>
+      <c r="I62" s="7">
+        <v>10</v>
+      </c>
+      <c r="J62" s="7">
+        <v>10</v>
+      </c>
+      <c r="K62" s="7">
+        <v>10</v>
+      </c>
+      <c r="L62" s="7">
         <v>1</v>
       </c>
     </row>
@@ -3118,37 +3178,37 @@
       <c r="A63" s="4">
         <v>62</v>
       </c>
-      <c r="B63" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D63" s="5">
-        <v>20</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F63" s="11">
-        <v>10000</v>
-      </c>
-      <c r="G63" s="5">
-        <v>2</v>
-      </c>
-      <c r="H63" s="5">
-        <v>4</v>
-      </c>
-      <c r="I63" s="5">
-        <v>2</v>
-      </c>
-      <c r="J63" s="5">
-        <v>2</v>
-      </c>
-      <c r="K63" s="5">
-        <v>2</v>
-      </c>
-      <c r="L63" s="5">
+      <c r="B63" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D63" s="7">
+        <v>150</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F63" s="13">
+        <v>150000</v>
+      </c>
+      <c r="G63" s="7">
+        <v>50</v>
+      </c>
+      <c r="H63" s="7">
+        <v>0</v>
+      </c>
+      <c r="I63" s="7">
+        <v>0</v>
+      </c>
+      <c r="J63" s="7">
+        <v>0</v>
+      </c>
+      <c r="K63" s="7">
+        <v>15</v>
+      </c>
+      <c r="L63" s="7">
         <v>1</v>
       </c>
     </row>
@@ -3156,37 +3216,37 @@
       <c r="A64" s="4">
         <v>63</v>
       </c>
-      <c r="B64" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D64" s="5">
-        <v>20</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F64" s="11">
-        <v>10000</v>
-      </c>
-      <c r="G64" s="5">
-        <v>0</v>
-      </c>
-      <c r="H64" s="5">
-        <v>8</v>
-      </c>
-      <c r="I64" s="5">
-        <v>0</v>
-      </c>
-      <c r="J64" s="5">
-        <v>0</v>
-      </c>
-      <c r="K64" s="5">
-        <v>4</v>
-      </c>
-      <c r="L64" s="5">
+      <c r="B64" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D64" s="7">
+        <v>150</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F64" s="13">
+        <v>150000</v>
+      </c>
+      <c r="G64" s="7">
+        <v>0</v>
+      </c>
+      <c r="H64" s="7">
+        <v>15</v>
+      </c>
+      <c r="I64" s="7">
+        <v>15</v>
+      </c>
+      <c r="J64" s="7">
+        <v>15</v>
+      </c>
+      <c r="K64" s="7">
+        <v>15</v>
+      </c>
+      <c r="L64" s="7">
         <v>1</v>
       </c>
     </row>
@@ -3194,37 +3254,37 @@
       <c r="A65" s="4">
         <v>64</v>
       </c>
-      <c r="B65" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D65" s="5">
-        <v>20</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F65" s="11">
-        <v>10000</v>
-      </c>
-      <c r="G65" s="5">
-        <v>2</v>
-      </c>
-      <c r="H65" s="5">
-        <v>0</v>
-      </c>
-      <c r="I65" s="5">
-        <v>2</v>
-      </c>
-      <c r="J65" s="5">
-        <v>2</v>
-      </c>
-      <c r="K65" s="5">
-        <v>2</v>
-      </c>
-      <c r="L65" s="5">
+      <c r="B65" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D65" s="7">
+        <v>150</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F65" s="13">
+        <v>150000</v>
+      </c>
+      <c r="G65" s="7">
+        <v>15</v>
+      </c>
+      <c r="H65" s="7">
+        <v>0</v>
+      </c>
+      <c r="I65" s="7">
+        <v>0</v>
+      </c>
+      <c r="J65" s="7">
+        <v>25</v>
+      </c>
+      <c r="K65" s="7">
+        <v>0</v>
+      </c>
+      <c r="L65" s="7">
         <v>1</v>
       </c>
     </row>
@@ -3232,37 +3292,37 @@
       <c r="A66" s="4">
         <v>65</v>
       </c>
-      <c r="B66" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C66" s="5" t="s">
+      <c r="B66" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C66" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D66" s="5">
-        <v>40</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F66" s="11">
-        <v>20000</v>
-      </c>
-      <c r="G66" s="5">
-        <v>4</v>
-      </c>
-      <c r="H66" s="5">
-        <v>8</v>
-      </c>
-      <c r="I66" s="5">
-        <v>4</v>
-      </c>
-      <c r="J66" s="5">
-        <v>4</v>
-      </c>
-      <c r="K66" s="5">
-        <v>4</v>
-      </c>
-      <c r="L66" s="5">
+      <c r="D66" s="7">
+        <v>200</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F66" s="13">
+        <v>300000</v>
+      </c>
+      <c r="G66" s="7">
+        <v>35</v>
+      </c>
+      <c r="H66" s="7">
+        <v>15</v>
+      </c>
+      <c r="I66" s="7">
+        <v>15</v>
+      </c>
+      <c r="J66" s="7">
+        <v>15</v>
+      </c>
+      <c r="K66" s="7">
+        <v>15</v>
+      </c>
+      <c r="L66" s="7">
         <v>1</v>
       </c>
     </row>
@@ -3270,37 +3330,37 @@
       <c r="A67" s="4">
         <v>66</v>
       </c>
-      <c r="B67" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C67" s="5" t="s">
+      <c r="B67" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C67" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D67" s="5">
-        <v>40</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F67" s="11">
-        <v>20000</v>
-      </c>
-      <c r="G67" s="5">
-        <v>0</v>
-      </c>
-      <c r="H67" s="5">
-        <v>16</v>
-      </c>
-      <c r="I67" s="5">
-        <v>0</v>
-      </c>
-      <c r="J67" s="5">
-        <v>0</v>
-      </c>
-      <c r="K67" s="5">
-        <v>6</v>
-      </c>
-      <c r="L67" s="5">
+      <c r="D67" s="7">
+        <v>200</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F67" s="13">
+        <v>300000</v>
+      </c>
+      <c r="G67" s="7">
+        <v>60</v>
+      </c>
+      <c r="H67" s="7">
+        <v>0</v>
+      </c>
+      <c r="I67" s="7">
+        <v>0</v>
+      </c>
+      <c r="J67" s="7">
+        <v>0</v>
+      </c>
+      <c r="K67" s="7">
+        <v>20</v>
+      </c>
+      <c r="L67" s="7">
         <v>1</v>
       </c>
     </row>
@@ -3308,37 +3368,37 @@
       <c r="A68" s="4">
         <v>67</v>
       </c>
-      <c r="B68" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C68" s="5" t="s">
+      <c r="B68" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C68" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D68" s="5">
-        <v>40</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F68" s="11">
-        <v>20000</v>
-      </c>
-      <c r="G68" s="5">
-        <v>4</v>
-      </c>
-      <c r="H68" s="5">
-        <v>0</v>
-      </c>
-      <c r="I68" s="5">
-        <v>4</v>
-      </c>
-      <c r="J68" s="5">
-        <v>4</v>
-      </c>
-      <c r="K68" s="5">
-        <v>4</v>
-      </c>
-      <c r="L68" s="5">
+      <c r="D68" s="7">
+        <v>200</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F68" s="13">
+        <v>300000</v>
+      </c>
+      <c r="G68" s="7">
+        <v>0</v>
+      </c>
+      <c r="H68" s="7">
+        <v>20</v>
+      </c>
+      <c r="I68" s="7">
+        <v>20</v>
+      </c>
+      <c r="J68" s="7">
+        <v>20</v>
+      </c>
+      <c r="K68" s="7">
+        <v>20</v>
+      </c>
+      <c r="L68" s="7">
         <v>1</v>
       </c>
     </row>
@@ -3346,37 +3406,37 @@
       <c r="A69" s="4">
         <v>68</v>
       </c>
-      <c r="B69" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D69" s="5">
-        <v>75</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F69" s="11">
-        <v>40000</v>
-      </c>
-      <c r="G69" s="5">
-        <v>6</v>
-      </c>
-      <c r="H69" s="5">
-        <v>16</v>
-      </c>
-      <c r="I69" s="5">
-        <v>6</v>
-      </c>
-      <c r="J69" s="5">
-        <v>6</v>
-      </c>
-      <c r="K69" s="5">
-        <v>6</v>
-      </c>
-      <c r="L69" s="5">
+      <c r="B69" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D69" s="7">
+        <v>200</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F69" s="13">
+        <v>300000</v>
+      </c>
+      <c r="G69" s="7">
+        <v>20</v>
+      </c>
+      <c r="H69" s="7">
+        <v>0</v>
+      </c>
+      <c r="I69" s="7">
+        <v>0</v>
+      </c>
+      <c r="J69" s="7">
+        <v>35</v>
+      </c>
+      <c r="K69" s="7">
+        <v>0</v>
+      </c>
+      <c r="L69" s="7">
         <v>1</v>
       </c>
     </row>
@@ -3384,37 +3444,37 @@
       <c r="A70" s="4">
         <v>69</v>
       </c>
-      <c r="B70" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D70" s="5">
-        <v>75</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F70" s="11">
-        <v>40000</v>
-      </c>
-      <c r="G70" s="5">
-        <v>0</v>
-      </c>
-      <c r="H70" s="5">
-        <v>32</v>
-      </c>
-      <c r="I70" s="5">
-        <v>0</v>
-      </c>
-      <c r="J70" s="5">
-        <v>0</v>
-      </c>
-      <c r="K70" s="5">
-        <v>8</v>
-      </c>
-      <c r="L70" s="5">
+      <c r="B70" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" s="7">
+        <v>250</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F70" s="13">
+        <v>500000</v>
+      </c>
+      <c r="G70" s="7">
+        <v>45</v>
+      </c>
+      <c r="H70" s="7">
+        <v>20</v>
+      </c>
+      <c r="I70" s="7">
+        <v>20</v>
+      </c>
+      <c r="J70" s="7">
+        <v>20</v>
+      </c>
+      <c r="K70" s="7">
+        <v>20</v>
+      </c>
+      <c r="L70" s="7">
         <v>1</v>
       </c>
     </row>
@@ -3422,37 +3482,37 @@
       <c r="A71" s="4">
         <v>70</v>
       </c>
-      <c r="B71" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D71" s="5">
+      <c r="B71" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D71" s="7">
+        <v>250</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F71" s="13">
+        <v>500000</v>
+      </c>
+      <c r="G71" s="7">
         <v>75</v>
       </c>
-      <c r="E71" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F71" s="11">
-        <v>40000</v>
-      </c>
-      <c r="G71" s="5">
-        <v>8</v>
-      </c>
-      <c r="H71" s="5">
-        <v>0</v>
-      </c>
-      <c r="I71" s="5">
-        <v>8</v>
-      </c>
-      <c r="J71" s="5">
-        <v>8</v>
-      </c>
-      <c r="K71" s="5">
-        <v>8</v>
-      </c>
-      <c r="L71" s="5">
+      <c r="H71" s="7">
+        <v>0</v>
+      </c>
+      <c r="I71" s="7">
+        <v>0</v>
+      </c>
+      <c r="J71" s="7">
+        <v>0</v>
+      </c>
+      <c r="K71" s="7">
+        <v>35</v>
+      </c>
+      <c r="L71" s="7">
         <v>1</v>
       </c>
     </row>
@@ -3460,37 +3520,37 @@
       <c r="A72" s="4">
         <v>71</v>
       </c>
-      <c r="B72" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D72" s="5">
-        <v>100</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F72" s="11">
-        <v>80000</v>
-      </c>
-      <c r="G72" s="5">
-        <v>8</v>
-      </c>
-      <c r="H72" s="5">
-        <v>24</v>
-      </c>
-      <c r="I72" s="5">
-        <v>8</v>
-      </c>
-      <c r="J72" s="5">
-        <v>8</v>
-      </c>
-      <c r="K72" s="5">
-        <v>8</v>
-      </c>
-      <c r="L72" s="5">
+      <c r="B72" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D72" s="7">
+        <v>250</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F72" s="13">
+        <v>500000</v>
+      </c>
+      <c r="G72" s="7">
+        <v>0</v>
+      </c>
+      <c r="H72" s="7">
+        <v>25</v>
+      </c>
+      <c r="I72" s="7">
+        <v>25</v>
+      </c>
+      <c r="J72" s="7">
+        <v>25</v>
+      </c>
+      <c r="K72" s="7">
+        <v>25</v>
+      </c>
+      <c r="L72" s="7">
         <v>1</v>
       </c>
     </row>
@@ -3498,37 +3558,37 @@
       <c r="A73" s="4">
         <v>72</v>
       </c>
-      <c r="B73" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D73" s="5">
-        <v>100</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F73" s="11">
-        <v>80000</v>
-      </c>
-      <c r="G73" s="5">
-        <v>0</v>
-      </c>
-      <c r="H73" s="5">
-        <v>40</v>
-      </c>
-      <c r="I73" s="5">
-        <v>0</v>
-      </c>
-      <c r="J73" s="5">
-        <v>0</v>
-      </c>
-      <c r="K73" s="5">
-        <v>12</v>
-      </c>
-      <c r="L73" s="5">
+      <c r="B73" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D73" s="7">
+        <v>250</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F73" s="13">
+        <v>500000</v>
+      </c>
+      <c r="G73" s="7">
+        <v>25</v>
+      </c>
+      <c r="H73" s="7">
+        <v>0</v>
+      </c>
+      <c r="I73" s="7">
+        <v>0</v>
+      </c>
+      <c r="J73" s="7">
+        <v>40</v>
+      </c>
+      <c r="K73" s="7">
+        <v>0</v>
+      </c>
+      <c r="L73" s="7">
         <v>1</v>
       </c>
     </row>
@@ -3537,34 +3597,34 @@
         <v>73</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D74" s="5">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F74" s="11">
-        <v>80000</v>
+        <v>5000</v>
       </c>
       <c r="G74" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H74" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J74" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K74" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L74" s="5">
         <v>1</v>
@@ -3575,34 +3635,34 @@
         <v>74</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D75" s="5">
-        <v>150</v>
+        <v>5</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F75" s="11">
-        <v>150000</v>
+        <v>5000</v>
       </c>
       <c r="G75" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H75" s="5">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="I75" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J75" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K75" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L75" s="5">
         <v>1</v>
@@ -3613,34 +3673,34 @@
         <v>75</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D76" s="5">
-        <v>150</v>
+        <v>5</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F76" s="11">
-        <v>150000</v>
+        <v>5000</v>
       </c>
       <c r="G76" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76" s="5">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I76" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K76" s="5">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="L76" s="5">
         <v>1</v>
@@ -3651,36 +3711,796 @@
         <v>76</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D77" s="5">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F77" s="11">
+        <v>10000</v>
+      </c>
+      <c r="G77" s="5">
+        <v>2</v>
+      </c>
+      <c r="H77" s="5">
+        <v>4</v>
+      </c>
+      <c r="I77" s="5">
+        <v>2</v>
+      </c>
+      <c r="J77" s="5">
+        <v>2</v>
+      </c>
+      <c r="K77" s="5">
+        <v>2</v>
+      </c>
+      <c r="L77" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
+        <v>77</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D78" s="5">
+        <v>20</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F78" s="11">
+        <v>10000</v>
+      </c>
+      <c r="G78" s="5">
+        <v>0</v>
+      </c>
+      <c r="H78" s="5">
+        <v>8</v>
+      </c>
+      <c r="I78" s="5">
+        <v>0</v>
+      </c>
+      <c r="J78" s="5">
+        <v>0</v>
+      </c>
+      <c r="K78" s="5">
+        <v>4</v>
+      </c>
+      <c r="L78" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
+        <v>78</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D79" s="5">
+        <v>20</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F79" s="11">
+        <v>10000</v>
+      </c>
+      <c r="G79" s="5">
+        <v>2</v>
+      </c>
+      <c r="H79" s="5">
+        <v>0</v>
+      </c>
+      <c r="I79" s="5">
+        <v>2</v>
+      </c>
+      <c r="J79" s="5">
+        <v>2</v>
+      </c>
+      <c r="K79" s="5">
+        <v>2</v>
+      </c>
+      <c r="L79" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
+        <v>79</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D80" s="5">
+        <v>40</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F80" s="11">
+        <v>20000</v>
+      </c>
+      <c r="G80" s="5">
+        <v>4</v>
+      </c>
+      <c r="H80" s="5">
+        <v>8</v>
+      </c>
+      <c r="I80" s="5">
+        <v>4</v>
+      </c>
+      <c r="J80" s="5">
+        <v>4</v>
+      </c>
+      <c r="K80" s="5">
+        <v>4</v>
+      </c>
+      <c r="L80" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
+        <v>80</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D81" s="5">
+        <v>40</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F81" s="11">
+        <v>20000</v>
+      </c>
+      <c r="G81" s="5">
+        <v>0</v>
+      </c>
+      <c r="H81" s="5">
+        <v>16</v>
+      </c>
+      <c r="I81" s="5">
+        <v>0</v>
+      </c>
+      <c r="J81" s="5">
+        <v>0</v>
+      </c>
+      <c r="K81" s="5">
+        <v>6</v>
+      </c>
+      <c r="L81" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <v>81</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D82" s="5">
+        <v>40</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F82" s="11">
+        <v>20000</v>
+      </c>
+      <c r="G82" s="5">
+        <v>4</v>
+      </c>
+      <c r="H82" s="5">
+        <v>0</v>
+      </c>
+      <c r="I82" s="5">
+        <v>4</v>
+      </c>
+      <c r="J82" s="5">
+        <v>4</v>
+      </c>
+      <c r="K82" s="5">
+        <v>4</v>
+      </c>
+      <c r="L82" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <v>82</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D83" s="5">
+        <v>75</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F83" s="11">
+        <v>40000</v>
+      </c>
+      <c r="G83" s="5">
+        <v>6</v>
+      </c>
+      <c r="H83" s="5">
+        <v>16</v>
+      </c>
+      <c r="I83" s="5">
+        <v>6</v>
+      </c>
+      <c r="J83" s="5">
+        <v>6</v>
+      </c>
+      <c r="K83" s="5">
+        <v>6</v>
+      </c>
+      <c r="L83" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
+        <v>83</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D84" s="5">
+        <v>75</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F84" s="11">
+        <v>40000</v>
+      </c>
+      <c r="G84" s="5">
+        <v>0</v>
+      </c>
+      <c r="H84" s="5">
+        <v>32</v>
+      </c>
+      <c r="I84" s="5">
+        <v>0</v>
+      </c>
+      <c r="J84" s="5">
+        <v>0</v>
+      </c>
+      <c r="K84" s="5">
+        <v>8</v>
+      </c>
+      <c r="L84" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" s="4">
+        <v>84</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D85" s="5">
+        <v>75</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F85" s="11">
+        <v>40000</v>
+      </c>
+      <c r="G85" s="5">
+        <v>8</v>
+      </c>
+      <c r="H85" s="5">
+        <v>0</v>
+      </c>
+      <c r="I85" s="5">
+        <v>8</v>
+      </c>
+      <c r="J85" s="5">
+        <v>8</v>
+      </c>
+      <c r="K85" s="5">
+        <v>8</v>
+      </c>
+      <c r="L85" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" s="4">
+        <v>85</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D86" s="5">
+        <v>100</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F86" s="11">
+        <v>80000</v>
+      </c>
+      <c r="G86" s="5">
+        <v>8</v>
+      </c>
+      <c r="H86" s="5">
+        <v>24</v>
+      </c>
+      <c r="I86" s="5">
+        <v>8</v>
+      </c>
+      <c r="J86" s="5">
+        <v>8</v>
+      </c>
+      <c r="K86" s="5">
+        <v>8</v>
+      </c>
+      <c r="L86" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" s="4">
+        <v>86</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D87" s="5">
+        <v>100</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F87" s="11">
+        <v>80000</v>
+      </c>
+      <c r="G87" s="5">
+        <v>0</v>
+      </c>
+      <c r="H87" s="5">
+        <v>40</v>
+      </c>
+      <c r="I87" s="5">
+        <v>0</v>
+      </c>
+      <c r="J87" s="5">
+        <v>0</v>
+      </c>
+      <c r="K87" s="5">
+        <v>12</v>
+      </c>
+      <c r="L87" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" s="4">
+        <v>87</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D88" s="5">
+        <v>100</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F88" s="11">
+        <v>80000</v>
+      </c>
+      <c r="G88" s="5">
+        <v>10</v>
+      </c>
+      <c r="H88" s="5">
+        <v>0</v>
+      </c>
+      <c r="I88" s="5">
+        <v>10</v>
+      </c>
+      <c r="J88" s="5">
+        <v>10</v>
+      </c>
+      <c r="K88" s="5">
+        <v>10</v>
+      </c>
+      <c r="L88" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" s="4">
+        <v>88</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D89" s="5">
+        <v>150</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F89" s="11">
         <v>150000</v>
       </c>
-      <c r="G77" s="5">
+      <c r="G89" s="5">
+        <v>10</v>
+      </c>
+      <c r="H89" s="5">
+        <v>30</v>
+      </c>
+      <c r="I89" s="5">
+        <v>10</v>
+      </c>
+      <c r="J89" s="5">
+        <v>10</v>
+      </c>
+      <c r="K89" s="5">
+        <v>10</v>
+      </c>
+      <c r="L89" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
+        <v>89</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D90" s="5">
+        <v>150</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F90" s="11">
+        <v>150000</v>
+      </c>
+      <c r="G90" s="5">
+        <v>0</v>
+      </c>
+      <c r="H90" s="5">
+        <v>50</v>
+      </c>
+      <c r="I90" s="5">
+        <v>0</v>
+      </c>
+      <c r="J90" s="5">
+        <v>0</v>
+      </c>
+      <c r="K90" s="5">
         <v>15</v>
       </c>
-      <c r="H77" s="5">
-        <v>0</v>
-      </c>
-      <c r="I77" s="5">
+      <c r="L90" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" s="4">
+        <v>90</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D91" s="5">
+        <v>150</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F91" s="11">
+        <v>150000</v>
+      </c>
+      <c r="G91" s="5">
         <v>15</v>
       </c>
-      <c r="J77" s="5">
+      <c r="H91" s="5">
+        <v>0</v>
+      </c>
+      <c r="I91" s="5">
         <v>15</v>
       </c>
-      <c r="K77" s="5">
+      <c r="J91" s="5">
         <v>15</v>
       </c>
-      <c r="L77" s="5">
+      <c r="K91" s="5">
+        <v>15</v>
+      </c>
+      <c r="L91" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" s="4">
+        <v>91</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D92" s="5">
+        <v>200</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F92" s="11">
+        <v>300000</v>
+      </c>
+      <c r="G92" s="5">
+        <v>15</v>
+      </c>
+      <c r="H92" s="5">
+        <v>35</v>
+      </c>
+      <c r="I92" s="5">
+        <v>15</v>
+      </c>
+      <c r="J92" s="5">
+        <v>15</v>
+      </c>
+      <c r="K92" s="5">
+        <v>15</v>
+      </c>
+      <c r="L92" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="4">
+        <v>92</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D93" s="5">
+        <v>200</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F93" s="11">
+        <v>300000</v>
+      </c>
+      <c r="G93" s="5">
+        <v>0</v>
+      </c>
+      <c r="H93" s="5">
+        <v>60</v>
+      </c>
+      <c r="I93" s="5">
+        <v>0</v>
+      </c>
+      <c r="J93" s="5">
+        <v>0</v>
+      </c>
+      <c r="K93" s="5">
+        <v>20</v>
+      </c>
+      <c r="L93" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" s="4">
+        <v>93</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D94" s="5">
+        <v>200</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F94" s="11">
+        <v>300000</v>
+      </c>
+      <c r="G94" s="5">
+        <v>20</v>
+      </c>
+      <c r="H94" s="5">
+        <v>0</v>
+      </c>
+      <c r="I94" s="5">
+        <v>20</v>
+      </c>
+      <c r="J94" s="5">
+        <v>20</v>
+      </c>
+      <c r="K94" s="5">
+        <v>20</v>
+      </c>
+      <c r="L94" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" s="4">
+        <v>94</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D95" s="5">
+        <v>250</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F95" s="11">
+        <v>500000</v>
+      </c>
+      <c r="G95" s="5">
+        <v>20</v>
+      </c>
+      <c r="H95" s="5">
+        <v>45</v>
+      </c>
+      <c r="I95" s="5">
+        <v>20</v>
+      </c>
+      <c r="J95" s="5">
+        <v>20</v>
+      </c>
+      <c r="K95" s="5">
+        <v>20</v>
+      </c>
+      <c r="L95" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" s="4">
+        <v>95</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D96" s="5">
+        <v>250</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F96" s="11">
+        <v>500000</v>
+      </c>
+      <c r="G96" s="5">
+        <v>0</v>
+      </c>
+      <c r="H96" s="5">
+        <v>75</v>
+      </c>
+      <c r="I96" s="5">
+        <v>0</v>
+      </c>
+      <c r="J96" s="5">
+        <v>0</v>
+      </c>
+      <c r="K96" s="5">
+        <v>35</v>
+      </c>
+      <c r="L96" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" s="4">
+        <v>96</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D97" s="5">
+        <v>250</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F97" s="11">
+        <v>500000</v>
+      </c>
+      <c r="G97" s="5">
+        <v>25</v>
+      </c>
+      <c r="H97" s="5">
+        <v>0</v>
+      </c>
+      <c r="I97" s="5">
+        <v>25</v>
+      </c>
+      <c r="J97" s="5">
+        <v>25</v>
+      </c>
+      <c r="K97" s="5">
+        <v>25</v>
+      </c>
+      <c r="L97" s="5">
         <v>1</v>
       </c>
     </row>
